--- a/outputs/CHENNAI1.xlsx
+++ b/outputs/CHENNAI1.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is looking to find the list of issues, and from the image, it is not immediately apparent that this page provides that information. The page primarily displays a repository overview with files and commit history, which might not directly indicate where to find the list of issues. Abi, who prefers a comprehensive understanding before acting, might not recognize this as a step toward finding the list of issues.</t>
+          <t>Answer: YES
+Facets: Motivations, Information Processing Style
+Why: The list of issues is a common feature in repositories for tracking bugs, tasks, and enhancements. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the list of issues as a necessary step toward solving an issue. The "Issues" tab is clearly visible in the left sidebar, making it an obvious next step.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly shows an "Issues" section in the left navigation panel, which is prominently labeled and easily identifiable. This aligns with Abi's comprehensive information processing style, as they can see and understand that clicking on "Issues" will likely lead them to a list of issues. The page layout and labeling provide enough information for Abi to confidently take this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The "Issues" tab is clearly labeled and visible in the left sidebar, making it straightforward for Abi to identify and click on it. Given her motivation to accomplish tasks and her comprehensive information processing style, she would likely understand that clicking on "Issues" will lead her to the list of issues. The page layout is clear and intuitive, providing a good user experience for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After hovering over "Issues" and clicking on "List," Abi will land on a page that clearly lists various issues. The heading "Issues" at the top of the page and the detailed list of issues with relevant information (titles, labels, dates) make it obvious that Abi is in the right place and making progress toward finding an issue to solve. This comprehensive view aligns with Abi's information processing style, and the structured format supports their process-oriented learning style.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking on the "Issues" tab, Abi will land on a page that clearly lists the issues, which aligns with her goal of finding an issue to solve. The page is well-organized, with issues categorized and labeled, making it easy for her to see that she has made progress toward her goal. The comprehensive list of issues provides all the information she needs to proceed with selecting an issue to solve, which aligns with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a comprehensive list of issues, which is directly related to Abi's goal of finding an issue to solve. Each issue is clearly labeled with details such as titles, labels, and dates, providing the necessary information for Abi to evaluate and choose the most appropriate issue. This aligns with Abi's motivations to accomplish their tasks and their comprehensive information processing style.</t>
+Facets: Motivations, Information Processing Style
+Why: Finding the most appropriate issue to solve is a logical next step after locating the list of issues. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would naturally consider evaluating the issues to determine which one is most suitable for her to work on. The page provides a clear list of issues with relevant details, which supports her in making an informed decision.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists various issues with detailed information such as titles, labels, and dates. This structured format provides Abi with the necessary details to read through and evaluate each issue, aligning with Abi's comprehensive information processing style. The page is straightforward, and the information is presented in a way that should make it clear to Abi what they need to do at this step, which is to read through the issues to find the most appropriate one to solve.</t>
+Facets: Motivations, Information Processing Style
+Why: The page clearly lists the issues with relevant details such as titles, labels, and dates, making it straightforward for Abi to read through them. Given her motivation to accomplish tasks and her comprehensive information processing style, she will know that reading through the issues is the next logical step to find an appropriate one to solve. The layout and organization of the page support her in this action, providing the necessary information in an accessible manner.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although the page lists issues with some details, it may not provide enough comprehensive information for Abi to determine if they are making progress toward their goal. Abi might need more detailed descriptions or context around each issue to feel confident that they have found the most appropriate one to solve. Given Abi's comprehensive information processing style and low computer self-efficacy, they may feel uncertain or overwhelmed without additional context or guidance, which could prevent them from confidently knowing they've done the right thing and making progress toward their goal.</t>
+Facets: Computer Self-Efficacy, Information Processing Style
+Why: While the page provides a list of issues, it may not give Abi all the information she needs to determine the most appropriate issue to solve. The titles and labels provide some context, but Abi might need more detailed descriptions or additional information to make an informed decision. Given her low computer self-efficacy, she might feel uncertain about whether she has enough information to proceed. Additionally, her comprehensive information processing style means she prefers to gather all relevant details before making a decision, and the current page might not fully satisfy that need.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page presents a clear list of issues, each with a unique identifier (#136 in this case), titles, labels, and other details. This structured format aligns with Abi's preference for comprehensive information. The clickable nature of the issue titles is a common web design pattern, making it intuitive for Abi to click on an issue to get more detailed information. Therefore, Abi will likely know what to do at this step and feel confident in taking this action.</t>
+Facets: Motivations, Information Processing Style
+Why: The page clearly lists the issues with clickable titles, making it intuitive for Abi to click on an issue to get more details. Given her motivation to accomplish tasks and her comprehensive information processing style, she will understand that clicking on an issue title, such as issue #136, will provide her with the detailed information she needs to determine if it is appropriate to solve. The layout and organization of the page support her in taking this action.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on issue #136, Abi is directed to a detailed page about the specific issue. The page provides comprehensive information, including a clear description of the problem, steps to reproduce, and potential solutions (e.g., specific files to change). There are also activity logs and comments that offer further context. This detailed and structured information aligns with Abi's comprehensive information processing style and process-oriented learning style, helping Abi feel confident that they are making progress toward their goal and have the necessary information to proceed.</t>
+Facets: Motivations, Information Processing Style
+Why: After clicking on issue #136, Abi will land on a detailed page that provides comprehensive information about the issue, including the steps needed to resolve it, relevant files, and additional context. This aligns with her motivation to accomplish tasks and her comprehensive information processing style. The detailed description and activity log will help her understand that she is making progress toward her goal and provide her with the necessary information to determine if this is the most appropriate issue to solve.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI1.xlsx
+++ b/outputs/CHENNAI1.xlsx
@@ -424,211 +424,152 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository interface of FLOSSCoach, I can analyze whether accessing a list of issues would be a natural step in ABI's problem-solving process:
-ABI's Characteristics that are relevant here:
-- Comprehensive information gatherer
-- Risk-averse
-- Prefers step-by-step processes
-- Needs thorough understanding before proceeding
-Analysis:
-1. The left sidebar clearly shows an "Issues" section which would be noticeable to ABI
-2. Given ABI's methodical nature, she would likely:
-   - First read through the README.md content shown (which explains what FLOSSCoach is)
-   - Want to understand the project structure before diving into issues
-   - Look for official documentation or guidelines about contribution
-So yes, ABI would likely consider finding the issues list as a logical step because:
-1. She'd want to ensure she's following the proper process
-2. The "Issues" section is clearly visible in the navigation
-3. It aligns with her preference for gathering comprehensive information before acting
-However, she might first spend time:
-- Reading the project documentation thoroughly
-- Understanding the "How to use?" and "Contribute" sections visible in the README
-- Checking if there are specific guidelines for newcomers
-Therefore, while finding issues would be part of her approach, it might not be her immediate first step due to her methodical nature and preference for complete understanding before taking action.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+Why: ABI would consider finding the list of issues as a necessary step because:
+1. Her comprehensive information processing style aligns with wanting to understand what issues are available before deciding which one to work on
+2. She is motivated to accomplish the task of finding an appropriate issue for newcomers, and looking at the list of issues is a logical first step in this process
+The subgoal makes sense as an initial step since ABI needs to see all available issues before she can evaluate which ones are appropriate for newcomers. This aligns with her methodical approach to gathering complete information before making decisions.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, ABI should be able to take this action because:
-1. The "Issues" menu item is clearly visible in the left sidebar navigation menu of the GitLab interface. It's located in a logical place where users typically look for project-related items.
-2. The Issues menu item is accompanied by a recognizable icon (the circle with # inside), which is a common symbol for issues in many development platforms.
-3. For Abi, who:
-- Likes to be thoroughly informed before acting
-- Prefers step-by-step processes
-- Is not very confident about computers
-- Learns by process-oriented learning
-The interface provides good cues:
-- The Issues section is clearly labeled
-- It's positioned in a standard location where project management items are typically found
-- The menu item is visually distinct and clickable
-- There's no ambiguity about what this section might contain
-However, to make it even more Abi-friendly, the interface could:
-- Include a tooltip explaining what Issues are
-- Provide a short description of what can be found in the Issues section
-- Show the number of open issues to give more context
-But overall, the current interface should be sufficient for Abi to find and click on the Issues menu item with confidence.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+Why: ABI would struggle with this action because:
+1. While there is an "Issues" item visible in the left sidebar, there's no clear indication or information about what clicking it will do or that it contains a list of issues for newcomers (low computer self-efficacy)
+2. Given ABI's risk-averse nature, she might hesitate to click on something without clear information about where it will lead
+3. The page doesn't provide comprehensive information about where to find newcomer-appropriate issues, and ABI's information processing style requires clear, complete information before taking action
+The page lacks explicit guidance or information that would make ABI confident that clicking "Issues" is the right step toward finding newcomer-appropriate issues. Without clear indicators or instructions, ABI would likely feel uncertain about proceeding with this action.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Looking at the screenshot, when Abi clicks on "Issues," they will definitely know they're making progress because:
-1. The page clearly shows a list of issues with their titles, status (open/closed), and other relevant information
-2. The interface shows they are in the "Issues" section (indicated at the top)
-3. They can see:
-   - Total number of issues (185)
-   - Open issues (22)
-   - Closed issues (133)
-4. Each issue has:
-   - A title
-   - Creation date
-   - Status indicators
-   - Labels (like "bug", "high priority")
-   - Comments count (if any)
-This provides clear feedback that they've successfully accessed the issues list and can now browse through them to find an appropriate issue for newcomers. Some issues are even marked with labels that might help identify beginner-friendly tasks.
-So yes, Abi will know they did the right thing because:
-1. The interface provides clear visual confirmation they're in the Issues section
-2. They can see a comprehensive list of all project issues
-3. The information is well-organized and includes filtering options to help find appropriate issues
-4. There are clear indicators of issue status and complexity through labels
-This matches their goal of finding the list of issues to identify one appropriate for newcomers.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+Why: ABI would struggle to confirm she's on the right track because:
+1. While the page shows a list of issues, there's too much information to process at once with various labels, tags, and statuses that might overwhelm her comprehensive information processing style
+2. Due to her low computer self-efficacy, she might be confused by technical terms and various icons/labels (like "bug", "priority", "closed") without clear explanations
+3. There's no clear indication or filtering mechanism specifically for "newcomer-friendly" issues, which would make her uncertain if she's looking at the right list (risk-averse nature)
+The page doesn't provide clear confirmation that she's making progress toward finding newcomer-appropriate issues. While some issues have "good for newcomers" tags, they're mixed in with many other issues and technical information, making it difficult for ABI to confidently determine if she's on the right track to finding appropriate issues for newcomers.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Looking at this GitLab issues page for what appears to be the Flosscoach-lr-p1 project, ABI would likely analyze the situation methodically to find an appropriate issue for a newcomer. Here's why:
-1. Comprehensive Evaluation
-- ABI typically likes to gather complete information before making decisions
-- She would carefully read through all the issue titles and their labels
-- She would note issues marked as "good for newcomers" and their complexity levels
-2. Key Features ABI Would Notice
-- Labels like "bug" and "good for newcomers" are clearly visible
-- Issue status (open/closed) is clearly marked
-- Creation dates and last updated information is available
-- Some issues have additional discussion (indicated by comment counts)
-3. Task Assessment
-- ABI would likely prefer issues explicitly marked as "good for newcomers"
-- She would look for issues with clear descriptions and well-defined scope
-- She would avoid issues marked with complex technical labels or multiple dependencies
-4. Risk Consideration
-- ABI tends to be risk-averse and would want to make sure she fully understands the task
-- She would likely look for issues with more documentation or discussion available
-- She might be hesitant about issues marked as "bug" without detailed explanations
-Given ABI's characteristics, yes, she would have thought of this step as crucial toward achieving the overall use case because:
-- It aligns with her methodical approach to problem-solving
-- It allows her to gather comprehensive information before making a decision
-- It helps her assess the risk and complexity levels of potential tasks
-- It enables her to make an informed choice based on her skill level and comfort zone</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+Why: ABI would consider this as a necessary step because:
+1. Her comprehensive information processing style aligns with wanting to carefully evaluate and compare different issues to find the most appropriate one for her skill level
+2. She is motivated to find an issue she can successfully work on, and identifying the most suitable one from the list is crucial for this goal
+This subgoal makes logical sense to ABI as she needs to carefully review and select an appropriate issue that matches her capabilities as a newcomer. This aligns with her methodical approach to gathering and processing information before making decisions. The presence of "good for newcomers" tags on some issues also provides a clear indication that there are issues specifically marked for people like her.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Based on the image shown, I can analyze whether ABI would know what to do at this step:
-ABI's Characteristics to Consider:
-1. Learning style: Comprehensive learning, needs to understand the whole picture
-2. Technology confidence: Low, prefers to be certain before taking action
-3. Information processing: Comprehensive processor, likes to gather all information
-Analysis for ABI:
-Positive Aspects:
-- The issues list is well-organized with clear titles and status indicators (open/closed)
-- Each issue shows creation date and labels (like "bug", "blocked")
-- Issues have numbers and show if they're closed or open
-- The page has a search functionality at the top
-Challenges for ABI:
-1. There are many issues (showing 185 total) which might overwhelm her
-2. No clear indication of which issues are suitable for newcomers
-3. Some technical terminology used in issue titles might be unclear
-4. No explicit difficulty levels or complexity indicators for most issues
-Recommendation:
-No, ABI might struggle at this step because:
-- She would want to understand which issues are appropriate for her skill level
-- There's no clear guidance on where to start
-- The amount of information might be overwhelming
-- She might not feel confident about choosing the right issue without more context
-To make this more ABI-friendly, the page should:
-- Have clear labels for "good first issue" or "beginner-friendly"
-- Include difficulty ratings
-- Provide more context about what skills are needed for each issue
-- Have a filter specifically for newcomer-appropriate issues</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+Why: ABI would struggle with this action because:
+1. The page presents too much information at once with various labels, tags, and statuses (bug, priority, closed) without clear explanations of what they mean, overwhelming her comprehensive information processing style
+2. Due to her low computer self-efficacy:
+   - She might not understand technical terms and symbols used in the issues
+   - While there are "good for newcomers" tags on some issues, there's no clear explanation of what makes these issues suitable for newcomers
+3. Her risk-averse nature would make her hesitant because:
+   - There's no clear filtering system to show only newcomer-friendly issues
+   - No guidance on how to evaluate which issues are truly appropriate for her skill level
+The page lacks the structured, clear information ABI needs to confidently identify and evaluate appropriate issues for newcomers. Without explicit guidance on how to interpret the various tags and labels, and no easy way to filter for truly newcomer-appropriate issues, ABI would feel uncertain about how to proceed.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, Abi will know if they're making progress toward their goal by examining the issues list because:
-1. The issues list provides clear information about each issue including:
-- Issue titles that describe the problem
-- Labels indicating difficulty/status (e.g., "bug", "good for newcomers")
-- When the issue was created and last updated
-- Whether issues are open or closed
-2. Particularly helpful for Abi's methodical style:
-- The "good for newcomers" label appears on some issues, making it easier to identify beginner-friendly tasks
-- Each issue shows its status (open/closed) clearly
-- The issues are chronologically organized with dates
-- The level of detail in titles helps assess difficulty
-3. Matches Abi's information processing preferences:
-- Information is presented in a structured list format
-- Comprehensive details are available for each issue
-- Labels provide quick visual cues about issue characteristics
-- Can methodically go through each issue to evaluate appropriateness
-4. Allows for informed decision-making:
-- Can see all available issues at once
-- Can filter and sort issues as needed
-- Has access to full issue history and context
-- Can verify if issues are still relevant/active
-This systematic presentation allows Abi to thoroughly evaluate and select an appropriate issue while feeling confident about their progress toward their goal of finding a suitable task for a newcomer.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: ABI would not be confident she's making progress because:
+1. Information Processing Style:
+   - The page has overwhelming amount of information with various tags, statuses, and technical terms
+   - No clear organization or categorization to help process information systematically
+   - While there are "good for newcomers" tags, they're scattered throughout different issues
+2. Computer Self-Efficacy:
+   - Technical terms and various labels (bug, priority) without explanations would make her unsure if she understands the issues correctly
+   - No clear indication of difficulty level or prerequisites for each issue
+3. Learning Style:
+   - There's no step-by-step guidance on how to evaluate if an issue is truly appropriate
+   - Lacks clear process-oriented information about what makes an issue suitable for newcomers
+Even after reading through the issues, ABI would likely feel uncertain about whether she's identified truly appropriate issues for her skill level, as there's no clear confirmation or structured way to validate her choices. The lack of comprehensive information about what makes an issue "newcomer-friendly" would leave her unsure if she's making the right decision.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Based on the image shown, ABI should be able to take this action relatively easily for the following reasons:
-1. Issue #136 "Adjust the footer: (i) add NAU logo; (ii) remove copyright mark (old Creative Commons)" is clearly visible in the list of issues.
-2. The issue title is straightforward and descriptive, making it clear what the task involves.
-3. The issue appears to be a relatively simple UI modification task, which could be suitable for newcomers.
-4. The issue has a "1" indicator next to it, suggesting it has some discussion or context that could help Abi understand the requirements better.
-However, Abi, being a comprehensive processor who likes to gather information and be thorough before taking action, might want to:
-- Look through other available issues first to ensure this is the most appropriate choice
-- Read through any comments or additional context within the issue before committing to it
-- Check if there are any labels indicating difficulty level (though none are visible for this issue)
-While the page provides enough information for Abi to click on the issue, she might feel more confident if there were explicit "good first issue" or "beginner-friendly" labels like some of the other issues have. Nevertheless, the UI modification nature of the task makes it a reasonable choice for a newcomer to the project.</t>
+          <t>Answer: NO
+Facets:
+1. Attitude Toward Risk
+2. Computer Self-Efficacy
+3. Information Processing Style
+Why: ABI would struggle to take this action because:
+1. Risk-averse nature:
+   - There's no clear indication of what will happen when clicking on issue #136
+   - No preview or explanation of what information she'll find after clicking
+2. Low Computer Self-Efficacy:
+   - The technical nature of the issue title ("Adjust the footer: (i) add NAU logo; (ii) remove copyright mark") might make her unsure if she has the skills to handle it
+   - No clear indication that this is a suitable starting point for someone with her level of confidence
+3. Information Processing Style:
+   - Before clicking, she would want comprehensive information about why this issue would be appropriate
+   - The page doesn't provide enough context about the complexity or prerequisites of the issue
+Without clear guidance about what clicking will lead to and whether this issue is truly appropriate for her skill level, ABI would be hesitant to click on the issue. Her risk-averse nature and need for comprehensive information would make her uncertain about whether this is the right action to take.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yes, by clicking on issue #136, Abi will know they're making progress toward their goal for several reasons:
-1. Clear Task Description:
-- The issue title clearly states what needs to be done: "Adjust the footer: (i) add NAU logo; (ii) remove copyright mark (add Creative Commons)"
-- There are specific, numbered instructions with visual examples
-- The task appears relatively straightforward for a newcomer
-2. Comprehensive Information:
-- The issue provides all necessary details including:
-  - Where to find the logo ("available here" link)
-  - Visual reference of current footer
-  - Explicit instructions about what to remove
-  - Clear indication of which text doesn't need to appear
-3. Task Appropriateness:
-- This seems like a good beginner task because:
-  - It's focused on UI changes
-  - Has clear visual goals
-  - Doesn't appear to require complex coding
-  - Has step-by-step instructions
-4. Status Indicators:
-- The issue is marked as "Open"
-- There's a clear indication of when it was created
-- Shows no current assignees, suggesting it's available to work on
-Given Abi's thorough and methodical nature, they would likely appreciate the clear documentation and specific requirements provided in this issue, confirming they've found an appropriate task for a newcomer.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+Why: ABI would not feel confident she's making progress because:
+1. Computer Self-Efficacy:
+   - Technical terms in the issue description like "flosscoach/app/views/application/_footer.html.erb" would be intimidating
+   - No indication of what skills or knowledge are needed to solve this issue
+   - No clear guidance on how to start working on this issue
+2. Information Processing Style:
+   - While the task seems straightforward (add logo, remove copyright), there's no comprehensive information about:
+     * The technical process involved
+     * The tools needed
+     * The steps to follow
+   - The file path mentioned in the activity section might be overwhelming without context
+3. Learning Style:
+   - No step-by-step instructions or tutorial-like guidance
+   - Lacks process-oriented information about how to approach solving the issue
+   - No clear indication if this is suitable for newcomers
+Even after clicking and reading the issue details, ABI would be uncertain if this is an appropriate issue for her skill level and if she has enough information to successfully complete it. The technical nature of the implementation details without proper guidance would make her doubt her ability to proceed.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI1.xlsx
+++ b/outputs/CHENNAI1.xlsx
@@ -428,26 +428,30 @@
 Facets:
 1. Information Processing Style
 2. Motivations
-Why: ABI would consider finding the list of issues as a necessary step because:
-1. Her comprehensive information processing style aligns with wanting to understand what issues are available before deciding which one to work on
-2. She is motivated to accomplish the task of finding an appropriate issue for newcomers, and looking at the list of issues is a logical first step in this process
-The subgoal makes sense as an initial step since ABI needs to see all available issues before she can evaluate which ones are appropriate for newcomers. This aligns with her methodical approach to gathering complete information before making decisions.</t>
+3. Attitude Towards Risk
+Why: ABI would consider finding the list of issues as a necessary first step because:
+- Her comprehensive information processing style means she wants to gather all available information before taking action
+- She is motivated to accomplish the task systematically and finding issues is clearly a required step
+- Given her risk-averse nature, she would want to review all issues first rather than jumping into solving one without proper context
+- The "Issues" link is clearly visible in the left sidebar navigation, which aligns with her preference for predictable, familiar interface elements
+The presence of a clear navigation structure and the logical progression from finding issues to solving them would make ABI comfortable with this as an initial step in the process.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
+          <t>Answer: YES
 Facets:
 1. Computer Self-Efficacy
-2. Attitude Toward Risk
-3. Information Processing Style
-Why: ABI would struggle with this action because:
-1. While there is an "Issues" item visible in the left sidebar, there's no clear indication or information about what clicking it will do or that it contains a list of issues for newcomers (low computer self-efficacy)
-2. Given ABI's risk-averse nature, she might hesitate to click on something without clear information about where it will lead
-3. The page doesn't provide comprehensive information about where to find newcomer-appropriate issues, and ABI's information processing style requires clear, complete information before taking action
-The page lacks explicit guidance or information that would make ABI confident that clicking "Issues" is the right step toward finding newcomer-appropriate issues. Without clear indicators or instructions, ABI would likely feel uncertain about proceeding with this action.</t>
+2. Learning Style
+3. Attitude Towards Risk
+Why: ABI would be comfortable taking this action because:
+- The "Issues" link is clearly visible in the left sidebar with a familiar icon (number count), which is a common pattern in software interfaces she might have used before
+- The term "Issues" is a straightforward, non-technical term that wouldn't intimidate someone with low computer self-efficacy
+- The action required (clicking a clearly labeled link) is a basic, low-risk interaction that aligns with her process-oriented approach
+- There's no need to tinker or experiment as the purpose of the "Issues" section is clear from its label and context within the project navigation menu
+- The interface follows a standard layout pattern that she would be familiar with from other websites/applications</t>
         </is>
       </c>
     </row>
@@ -458,12 +462,15 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Attitude Toward Risk
-Why: ABI would struggle to confirm she's on the right track because:
-1. While the page shows a list of issues, there's too much information to process at once with various labels, tags, and statuses that might overwhelm her comprehensive information processing style
-2. Due to her low computer self-efficacy, she might be confused by technical terms and various icons/labels (like "bug", "priority", "closed") without clear explanations
-3. There's no clear indication or filtering mechanism specifically for "newcomer-friendly" issues, which would make her uncertain if she's looking at the right list (risk-averse nature)
-The page doesn't provide clear confirmation that she's making progress toward finding newcomer-appropriate issues. While some issues have "good for newcomers" tags, they're mixed in with many other issues and technical information, making it difficult for ABI to confidently determine if she's on the right track to finding appropriate issues for newcomers.</t>
+3. Attitude Towards Risk
+4. None of the Above (Information Overload)
+Why: ABI would struggle to confirm she's making progress because:
+- The page shows a long list of issues with various labels, tags, and statuses (like "bug", "closed", "good for newcomers") without clear explanation of what these mean, which would overwhelm someone with low computer self-efficacy
+- There's no clear indication or guidance about which issues are appropriate for newcomers, despite some having "good for newcomers" tags, the information is scattered and requires sorting through many issues
+- Her comprehensive information processing style would make her want to understand all the different labels and statuses before proceeding, but there's no explanation provided
+- The page contains too much technical information and jargon without proper context, which would make ABI uncertain about whether she's in the right place
+- Given her risk-averse nature, the lack of clear guidance about which issues are suitable for beginners would make her hesitant about proceeding
+The overwhelming amount of information without clear organization or guidance for newcomers would make ABI unsure if she's making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -474,10 +481,14 @@
 Facets:
 1. Information Processing Style
 2. Motivations
-Why: ABI would consider this as a necessary step because:
-1. Her comprehensive information processing style aligns with wanting to carefully evaluate and compare different issues to find the most appropriate one for her skill level
-2. She is motivated to find an issue she can successfully work on, and identifying the most suitable one from the list is crucial for this goal
-This subgoal makes logical sense to ABI as she needs to carefully review and select an appropriate issue that matches her capabilities as a newcomer. This aligns with her methodical approach to gathering and processing information before making decisions. The presence of "good for newcomers" tags on some issues also provides a clear indication that there are issues specifically marked for people like her.</t>
+3. Attitude Towards Risk
+Why: ABI would consider this a necessary step because:
+- Her comprehensive information processing style means she wants to review all available issues before making a decision
+- She is motivated to find an appropriate issue that matches her skill level and comfort zone
+- Her risk-averse nature means she would want to carefully evaluate which issue is most suitable for a newcomer before committing to one
+- She can see there are issues labeled "good for newcomers" which indicates there are specifically designated tasks for new contributors
+- The presence of different labels and statuses (though overwhelming) suggests there is a way to filter and find appropriate issues
+Even though the interface might be overwhelming, ABI would recognize this step as crucial for finding an issue that she can confidently work on as a newcomer. The presence of "good for newcomers" tags particularly aligns with her need to find an appropriate entry point.</t>
         </is>
       </c>
     </row>
@@ -486,41 +497,40 @@
         <is>
           <t>Answer: NO
 Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. None of the Above (Information Overload)
+4. Learning Style
+Why: ABI would struggle to know what to do at this step because:
+- The page presents an overwhelming amount of information with various labels (bug, good for newcomers), statuses (open, closed), and technical terms without clear explanations, which would be challenging for someone with low computer self-efficacy
+- Her comprehensive information processing style would make her want to understand all the different labels and statuses before proceeding, but there's no clear guidance or explanation about what they mean
+- There's no clear process or instructions about how to identify which issues are truly appropriate for newcomers, despite some having "good for newcomers" tags
+- The interface requires understanding of technical terms and GitHub-specific concepts that aren't explained
+- The page lacks a structured way to filter or sort issues specifically for newcomers, which doesn't align with her process-oriented learning style
+- The mix of open and closed issues, various labels, and technical descriptions creates information overload that would make it difficult for ABI to confidently proceed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Attitude Toward Risk
-Why: ABI would struggle with this action because:
-1. The page presents too much information at once with various labels, tags, and statuses (bug, priority, closed) without clear explanations of what they mean, overwhelming her comprehensive information processing style
-2. Due to her low computer self-efficacy:
-   - She might not understand technical terms and symbols used in the issues
-   - While there are "good for newcomers" tags on some issues, there's no clear explanation of what makes these issues suitable for newcomers
-3. Her risk-averse nature would make her hesitant because:
-   - There's no clear filtering system to show only newcomer-friendly issues
-   - No guidance on how to evaluate which issues are truly appropriate for her skill level
-The page lacks the structured, clear information ABI needs to confidently identify and evaluate appropriate issues for newcomers. Without explicit guidance on how to interpret the various tags and labels, and no easy way to filter for truly newcomer-appropriate issues, ABI would feel uncertain about how to proceed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Learning Style
+3. Attitude Towards Risk
+4. None of the Above (Information Overload)
 Why: ABI would not be confident she's making progress because:
-1. Information Processing Style:
-   - The page has overwhelming amount of information with various tags, statuses, and technical terms
-   - No clear organization or categorization to help process information systematically
-   - While there are "good for newcomers" tags, they're scattered throughout different issues
-2. Computer Self-Efficacy:
-   - Technical terms and various labels (bug, priority) without explanations would make her unsure if she understands the issues correctly
-   - No clear indication of difficulty level or prerequisites for each issue
-3. Learning Style:
-   - There's no step-by-step guidance on how to evaluate if an issue is truly appropriate
-   - Lacks clear process-oriented information about what makes an issue suitable for newcomers
-Even after reading through the issues, ABI would likely feel uncertain about whether she's identified truly appropriate issues for her skill level, as there's no clear confirmation or structured way to validate her choices. The lack of comprehensive information about what makes an issue "newcomer-friendly" would leave her unsure if she's making the right decision.</t>
+- Her comprehensive information processing style would be frustrated by the lack of clear organization and explanation of the different labels (bug, good for newcomers) and their meanings
+- With low computer self-efficacy, she would be uncertain if she's interpreting the technical terms and issue descriptions correctly
+- The mix of open/closed issues, various labels, and technical descriptions creates information overload, making it difficult to determine if she's found an appropriate issue
+- Her risk-averse nature would make her hesitant about proceeding without clear confirmation that an issue is truly suitable for newcomers
+- While there are "good for newcomers" tags, there's no explanation of:
+  * What makes these issues good for newcomers
+  * What skills are needed to solve them
+  * What the expected difficulty level is
+  * What the next steps would be after selecting an issue
+The lack of clear guidance and structured information would leave ABI uncertain whether she's identified an appropriate issue for her skill level and experience.</t>
         </is>
       </c>
     </row>
@@ -529,20 +539,21 @@
         <is>
           <t>Answer: NO
 Facets:
-1. Attitude Toward Risk
-2. Computer Self-Efficacy
-3. Information Processing Style
-Why: ABI would struggle to take this action because:
-1. Risk-averse nature:
-   - There's no clear indication of what will happen when clicking on issue #136
-   - No preview or explanation of what information she'll find after clicking
-2. Low Computer Self-Efficacy:
-   - The technical nature of the issue title ("Adjust the footer: (i) add NAU logo; (ii) remove copyright mark") might make her unsure if she has the skills to handle it
-   - No clear indication that this is a suitable starting point for someone with her level of confidence
-3. Information Processing Style:
-   - Before clicking, she would want comprehensive information about why this issue would be appropriate
-   - The page doesn't provide enough context about the complexity or prerequisites of the issue
-Without clear guidance about what clicking will lead to and whether this issue is truly appropriate for her skill level, ABI would be hesitant to click on the issue. Her risk-averse nature and need for comprehensive information would make her uncertain about whether this is the right action to take.</t>
+1. Computer Self-Efficacy
+2. Attitude Towards Risk
+3. Learning Style
+4. Information Processing Style
+Why: ABI would struggle to know whether to click on issue #136 because:
+- With her low computer self-efficacy, she would be uncertain about clicking on an issue without clear indication that it's appropriate for newcomers (this issue doesn't have a "good for newcomers" tag)
+- Her risk-averse nature would make her hesitant to click on an issue that doesn't explicitly indicate it's suitable for beginners
+- Her process-oriented learning style means she would prefer clear guidance about which issues are appropriate to start with, rather than having to guess
+- Her comprehensive information processing style would want to understand:
+  * What makes this issue appropriate for newcomers
+  * What skills are needed to work on it
+  * What happens after clicking on it
+  * Whether she's qualified to work on it
+- The technical nature of the issue title ("Adjust the footer: (i) add NAU logo; (ii) remove copyright mark") without context about difficulty level would make her uncertain
+The lack of clear indicators about the issue's suitability for newcomers would make ABI hesitant to click on it.</t>
         </is>
       </c>
     </row>
@@ -553,23 +564,21 @@
 Facets:
 1. Computer Self-Efficacy
 2. Information Processing Style
-3. Learning Style
-Why: ABI would not feel confident she's making progress because:
-1. Computer Self-Efficacy:
-   - Technical terms in the issue description like "flosscoach/app/views/application/_footer.html.erb" would be intimidating
-   - No indication of what skills or knowledge are needed to solve this issue
-   - No clear guidance on how to start working on this issue
-2. Information Processing Style:
-   - While the task seems straightforward (add logo, remove copyright), there's no comprehensive information about:
-     * The technical process involved
-     * The tools needed
-     * The steps to follow
-   - The file path mentioned in the activity section might be overwhelming without context
-3. Learning Style:
-   - No step-by-step instructions or tutorial-like guidance
-   - Lacks process-oriented information about how to approach solving the issue
-   - No clear indication if this is suitable for newcomers
-Even after clicking and reading the issue details, ABI would be uncertain if this is an appropriate issue for her skill level and if she has enough information to successfully complete it. The technical nature of the implementation details without proper guidance would make her doubt her ability to proceed.</t>
+3. Attitude Towards Risk
+4. None of the Above (Technical Complexity)
+Why: ABI would not feel confident she's made progress because:
+- The issue description contains technical terms and file paths (like "flosscoach/app/views/application/_footer.html.erb") that would be intimidating for someone with low computer self-efficacy
+- Her comprehensive information processing style would be frustrated by:
+  * Lack of clear instructions about how to start working on this issue
+  * No indication of required skills or experience level
+  * No explanation of the development environment setup needed
+  * No clear steps or process to follow
+- Her risk-averse nature would make her uncomfortable because:
+  * There's no indication this is suitable for newcomers
+  * The technical nature of the changes required isn't fully explained
+  * The consequences of making these changes aren't clear
+- The page shows various unfamiliar UI elements and options (like "Child items", "Linked items", technical editing tools) without explanation of their purpose or how to use them
+The lack of beginner-friendly context and clear guidance would make ABI uncertain whether this is an appropriate issue for her to tackle.</t>
         </is>
       </c>
     </row>
